--- a/data/time_series/pbo_cashflow_data_for_ldi.xlsx
+++ b/data/time_series/pbo_cashflow_data_for_ldi.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0782766A-AAA5-4256-8E0A-EF52D87234E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25E9637-446D-44F4-98DE-39C1CB896A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
+    <workbookView xWindow="-28910" yWindow="-50" windowWidth="29020" windowHeight="15820" activeTab="3" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="3" r:id="rId1"/>
     <sheet name="2022" sheetId="5" r:id="rId2"/>
     <sheet name="2023" sheetId="7" r:id="rId3"/>
+    <sheet name="2024" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -3385,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB61BDA-A7D4-43F4-80EE-04A0616BB5AE}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4856,4 +4857,1481 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74B601A-6978-40E3-8B09-5028D47F1F10}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B2">
+        <v>1373322019.6739943</v>
+      </c>
+      <c r="C2">
+        <v>339750266.15897739</v>
+      </c>
+      <c r="D2">
+        <v>499729319.41250658</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>2212801605.2454782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B3">
+        <v>1429462747.5462487</v>
+      </c>
+      <c r="C3">
+        <v>371780388.86288357</v>
+      </c>
+      <c r="D3">
+        <v>541359753.46007133</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">SUM(B3:D3)</f>
+        <v>2342602889.8692036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B4">
+        <v>1485469503.9186175</v>
+      </c>
+      <c r="C4">
+        <v>404381509.9978317</v>
+      </c>
+      <c r="D4">
+        <v>579561633.14159167</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2469412647.0580406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B5">
+        <v>1539126261.1767397</v>
+      </c>
+      <c r="C5">
+        <v>437411064.54105878</v>
+      </c>
+      <c r="D5">
+        <v>617074769.96865761</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2593612095.6864562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B6">
+        <v>1590423047.3497596</v>
+      </c>
+      <c r="C6">
+        <v>470162962.16468143</v>
+      </c>
+      <c r="D6">
+        <v>650213984.3545742</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2710799993.8690152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B7">
+        <v>1633713205.2663982</v>
+      </c>
+      <c r="C7">
+        <v>501793116.65503156</v>
+      </c>
+      <c r="D7">
+        <v>678076214.04547215</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2813582535.9669018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B8">
+        <v>1674194496.2154489</v>
+      </c>
+      <c r="C8">
+        <v>532147399.80300546</v>
+      </c>
+      <c r="D8">
+        <v>702211682.1000185</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2908553578.1184731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B9">
+        <v>1707790555.9039917</v>
+      </c>
+      <c r="C9">
+        <v>561307799.41944826</v>
+      </c>
+      <c r="D9">
+        <v>723305244.49470925</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2992403599.8181496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B10">
+        <v>1733914130.0057793</v>
+      </c>
+      <c r="C10">
+        <v>588498973.50505793</v>
+      </c>
+      <c r="D10">
+        <v>742260461.49739206</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3064673565.0082293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>48579</v>
+      </c>
+      <c r="B11">
+        <v>1753414340.6772306</v>
+      </c>
+      <c r="C11">
+        <v>613785654.46492112</v>
+      </c>
+      <c r="D11">
+        <v>758603226.27426291</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3125803221.4164147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>48944</v>
+      </c>
+      <c r="B12">
+        <v>1767189026.5776663</v>
+      </c>
+      <c r="C12">
+        <v>636882291.72716308</v>
+      </c>
+      <c r="D12">
+        <v>772564683.33012116</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3176636001.6349506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>49309</v>
+      </c>
+      <c r="B13">
+        <v>1771275199.9389012</v>
+      </c>
+      <c r="C13">
+        <v>657586107.70506179</v>
+      </c>
+      <c r="D13">
+        <v>783718616.66907084</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3212579924.3130336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B14">
+        <v>1770111235.3911917</v>
+      </c>
+      <c r="C14">
+        <v>676038922.56951118</v>
+      </c>
+      <c r="D14">
+        <v>792652328.92568493</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3238802486.8863878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B15">
+        <v>1762095951.7866755</v>
+      </c>
+      <c r="C15">
+        <v>692083043.38907456</v>
+      </c>
+      <c r="D15">
+        <v>801432231.32033181</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3255611226.4960814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B16">
+        <v>1748259133.479032</v>
+      </c>
+      <c r="C16">
+        <v>705764174.16403639</v>
+      </c>
+      <c r="D16">
+        <v>810375254.22351992</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3264398561.8665881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>50770</v>
+      </c>
+      <c r="B17">
+        <v>1730123043.9385078</v>
+      </c>
+      <c r="C17">
+        <v>717495530.52496529</v>
+      </c>
+      <c r="D17">
+        <v>817998733.82960057</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3265617308.2930737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>51135</v>
+      </c>
+      <c r="B18">
+        <v>1707675697.3116865</v>
+      </c>
+      <c r="C18">
+        <v>727303593.64062536</v>
+      </c>
+      <c r="D18">
+        <v>824328959.20759654</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3259308250.1599083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>51501</v>
+      </c>
+      <c r="B19">
+        <v>1678097226.497257</v>
+      </c>
+      <c r="C19">
+        <v>735140244.4324795</v>
+      </c>
+      <c r="D19">
+        <v>828411796.75307333</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3241649267.6828098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>51866</v>
+      </c>
+      <c r="B20">
+        <v>1644854569.818738</v>
+      </c>
+      <c r="C20">
+        <v>741321399.60979259</v>
+      </c>
+      <c r="D20">
+        <v>830380013.49312496</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>3216555982.9216557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>52231</v>
+      </c>
+      <c r="B21">
+        <v>1607098336.2281451</v>
+      </c>
+      <c r="C21">
+        <v>745696746.32980895</v>
+      </c>
+      <c r="D21">
+        <v>830134170.31817973</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3182929252.8761334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>52596</v>
+      </c>
+      <c r="B22">
+        <v>1568297536.0804701</v>
+      </c>
+      <c r="C22">
+        <v>748102160.57043898</v>
+      </c>
+      <c r="D22">
+        <v>828280947.03293538</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3144680643.6838446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>52962</v>
+      </c>
+      <c r="B23">
+        <v>1523093089.8707104</v>
+      </c>
+      <c r="C23">
+        <v>747986791.26438785</v>
+      </c>
+      <c r="D23">
+        <v>824164349.54403925</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3095244230.6791377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>53327</v>
+      </c>
+      <c r="B24">
+        <v>1473012781.1578734</v>
+      </c>
+      <c r="C24">
+        <v>745199818.76910651</v>
+      </c>
+      <c r="D24">
+        <v>817898467.95577598</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3036111067.8827562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>53692</v>
+      </c>
+      <c r="B25">
+        <v>1421725987.81428</v>
+      </c>
+      <c r="C25">
+        <v>740629349.83712602</v>
+      </c>
+      <c r="D25">
+        <v>809160912.6280967</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2971516250.2795029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>54057</v>
+      </c>
+      <c r="B26">
+        <v>1364612670.7945104</v>
+      </c>
+      <c r="C26">
+        <v>734466917.0502634</v>
+      </c>
+      <c r="D26">
+        <v>798308297.33159745</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>2897387885.1763711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>54423</v>
+      </c>
+      <c r="B27">
+        <v>1303132601.9253769</v>
+      </c>
+      <c r="C27">
+        <v>726330674.17806184</v>
+      </c>
+      <c r="D27">
+        <v>784978344.16335595</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2814441620.2667947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>54788</v>
+      </c>
+      <c r="B28">
+        <v>1239344311.6773343</v>
+      </c>
+      <c r="C28">
+        <v>715681654.01095378</v>
+      </c>
+      <c r="D28">
+        <v>769547229.47718227</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2724573195.1654706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>55153</v>
+      </c>
+      <c r="B29">
+        <v>1166744530.2507663</v>
+      </c>
+      <c r="C29">
+        <v>702181202.30205488</v>
+      </c>
+      <c r="D29">
+        <v>745174422.71969295</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2614100155.2725143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>55518</v>
+      </c>
+      <c r="B30">
+        <v>1095807362.2225039</v>
+      </c>
+      <c r="C30">
+        <v>686398274.50576925</v>
+      </c>
+      <c r="D30">
+        <v>823416274.7868433</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2605621911.5151167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>55884</v>
+      </c>
+      <c r="B31">
+        <v>1018509303.1136431</v>
+      </c>
+      <c r="C31">
+        <v>669000615.13082623</v>
+      </c>
+      <c r="D31">
+        <v>871039922.31941652</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2558549840.5638857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>56249</v>
+      </c>
+      <c r="B32">
+        <v>942342314.81355274</v>
+      </c>
+      <c r="C32">
+        <v>650312595.08822954</v>
+      </c>
+      <c r="D32">
+        <v>829969277.69961154</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2422624187.6013937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>56614</v>
+      </c>
+      <c r="B33">
+        <v>868627961.58923304</v>
+      </c>
+      <c r="C33">
+        <v>630407585.75922966</v>
+      </c>
+      <c r="D33">
+        <v>787854083.40234196</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2286889630.7508044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>56979</v>
+      </c>
+      <c r="B34">
+        <v>793991663.07159638</v>
+      </c>
+      <c r="C34">
+        <v>609566245.31329608</v>
+      </c>
+      <c r="D34">
+        <v>745183129.29844415</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2148741037.6833367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>57345</v>
+      </c>
+      <c r="B35">
+        <v>722664907.3349371</v>
+      </c>
+      <c r="C35">
+        <v>587957650.73843002</v>
+      </c>
+      <c r="D35">
+        <v>707895477.87128627</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2018518035.9446535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>57710</v>
+      </c>
+      <c r="B36">
+        <v>655056102.4126054</v>
+      </c>
+      <c r="C36">
+        <v>565885953.21906626</v>
+      </c>
+      <c r="D36">
+        <v>671774546.66550446</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1892716602.2971761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>58075</v>
+      </c>
+      <c r="B37">
+        <v>592326795.60039961</v>
+      </c>
+      <c r="C37">
+        <v>543749820.18500459</v>
+      </c>
+      <c r="D37">
+        <v>630771093.58691812</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1766847709.3723223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>58440</v>
+      </c>
+      <c r="B38">
+        <v>533122354.78383833</v>
+      </c>
+      <c r="C38">
+        <v>521595501.25292194</v>
+      </c>
+      <c r="D38">
+        <v>590349353.99233747</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1645067210.0290978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>58806</v>
+      </c>
+      <c r="B39">
+        <v>478474251.61203676</v>
+      </c>
+      <c r="C39">
+        <v>499436358.35009855</v>
+      </c>
+      <c r="D39">
+        <v>550808111.89906907</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1528718721.8612044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>59171</v>
+      </c>
+      <c r="B40">
+        <v>428627883.50212365</v>
+      </c>
+      <c r="C40">
+        <v>477119725.80310595</v>
+      </c>
+      <c r="D40">
+        <v>512444539.19979024</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1418192148.5050199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>59536</v>
+      </c>
+      <c r="B41">
+        <v>382547864.12524712</v>
+      </c>
+      <c r="C41">
+        <v>454151304.86725366</v>
+      </c>
+      <c r="D41">
+        <v>475426441.14101458</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1312125610.1335154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>59901</v>
+      </c>
+      <c r="B42">
+        <v>340127853.90240735</v>
+      </c>
+      <c r="C42">
+        <v>431020589.0973382</v>
+      </c>
+      <c r="D42">
+        <v>439921852.24627554</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1211070295.2460213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>60267</v>
+      </c>
+      <c r="B43">
+        <v>301226258.93634731</v>
+      </c>
+      <c r="C43">
+        <v>408587457.73122466</v>
+      </c>
+      <c r="D43">
+        <v>406082779.24908274</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1115896495.9166548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>60632</v>
+      </c>
+      <c r="B44">
+        <v>265708985.80053291</v>
+      </c>
+      <c r="C44">
+        <v>386832332.17360216</v>
+      </c>
+      <c r="D44">
+        <v>373993280.43876785</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1026534598.4129028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>60997</v>
+      </c>
+      <c r="B45">
+        <v>233419144.77293503</v>
+      </c>
+      <c r="C45">
+        <v>364203078.61724913</v>
+      </c>
+      <c r="D45">
+        <v>343681819.46101326</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>941304042.85119748</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>61362</v>
+      </c>
+      <c r="B46">
+        <v>204165244.84332266</v>
+      </c>
+      <c r="C46">
+        <v>340649691.93477809</v>
+      </c>
+      <c r="D46">
+        <v>315155778.82297075</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>859970715.60107148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>61728</v>
+      </c>
+      <c r="B47">
+        <v>177750077.23683867</v>
+      </c>
+      <c r="C47">
+        <v>317754499.23360085</v>
+      </c>
+      <c r="D47">
+        <v>288390299.23042423</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>783894875.70086384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>62093</v>
+      </c>
+      <c r="B48">
+        <v>153989280.2324658</v>
+      </c>
+      <c r="C48">
+        <v>295665475.75173622</v>
+      </c>
+      <c r="D48">
+        <v>263331172.72335327</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>712985928.70755529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>62458</v>
+      </c>
+      <c r="B49">
+        <v>132697636.41500403</v>
+      </c>
+      <c r="C49">
+        <v>274396094.53491247</v>
+      </c>
+      <c r="D49">
+        <v>239924650.06678554</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>647018381.01670206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>62823</v>
+      </c>
+      <c r="B50">
+        <v>113694827.64500624</v>
+      </c>
+      <c r="C50">
+        <v>253957116.90480375</v>
+      </c>
+      <c r="D50">
+        <v>218106296.26564488</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>585758240.81545484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>63189</v>
+      </c>
+      <c r="B51">
+        <v>96807400.237805828</v>
+      </c>
+      <c r="C51">
+        <v>234361808.29276326</v>
+      </c>
+      <c r="D51">
+        <v>197803425.18458107</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>528972633.71515012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>63554</v>
+      </c>
+      <c r="B52">
+        <v>81872008.718496859</v>
+      </c>
+      <c r="C52">
+        <v>215621583.89934388</v>
+      </c>
+      <c r="D52">
+        <v>178937686.41710919</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>476431279.03494996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>63919</v>
+      </c>
+      <c r="B53">
+        <v>68734354.73143886</v>
+      </c>
+      <c r="C53">
+        <v>197742912.66271061</v>
+      </c>
+      <c r="D53">
+        <v>161429757.01814947</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>427907024.41229892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>64284</v>
+      </c>
+      <c r="B54">
+        <v>57248124.717034981</v>
+      </c>
+      <c r="C54">
+        <v>180731541.83055943</v>
+      </c>
+      <c r="D54">
+        <v>145202492.37593529</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>383182158.92352974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>64650</v>
+      </c>
+      <c r="B55">
+        <v>47274178.822357319</v>
+      </c>
+      <c r="C55">
+        <v>164591913.0711889</v>
+      </c>
+      <c r="D55">
+        <v>130182879.50146903</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>342048971.39501524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>65015</v>
+      </c>
+      <c r="B56">
+        <v>38679683.448490292</v>
+      </c>
+      <c r="C56">
+        <v>149326380.84965712</v>
+      </c>
+      <c r="D56">
+        <v>116302314.11722837</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>304308378.41537577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>65380</v>
+      </c>
+      <c r="B57">
+        <v>31337086.353482302</v>
+      </c>
+      <c r="C57">
+        <v>134935103.69364351</v>
+      </c>
+      <c r="D57">
+        <v>103497158.53653358</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>269769348.58365941</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>65745</v>
+      </c>
+      <c r="B58">
+        <v>25123596.678533737</v>
+      </c>
+      <c r="C58">
+        <v>121416449.56769334</v>
+      </c>
+      <c r="D58">
+        <v>91709302.382271439</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>238249348.62849852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>66111</v>
+      </c>
+      <c r="B59">
+        <v>19920431.196143918</v>
+      </c>
+      <c r="C59">
+        <v>108766397.39429492</v>
+      </c>
+      <c r="D59">
+        <v>80885327.046183616</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>209572155.63662246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>66476</v>
+      </c>
+      <c r="B60">
+        <v>15612445.386140397</v>
+      </c>
+      <c r="C60">
+        <v>96977141.074121028</v>
+      </c>
+      <c r="D60">
+        <v>70976199.903992012</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>183565786.36425343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>66841</v>
+      </c>
+      <c r="B61">
+        <v>12089017.057254644</v>
+      </c>
+      <c r="C61">
+        <v>86036701.666382417</v>
+      </c>
+      <c r="D61">
+        <v>61937106.982075132</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>160062825.7057122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>67206</v>
+      </c>
+      <c r="B62">
+        <v>9244918.1479484905</v>
+      </c>
+      <c r="C62">
+        <v>75928349.218451679</v>
+      </c>
+      <c r="D62">
+        <v>53725766.330331013</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>138899033.69673118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>67572</v>
+      </c>
+      <c r="B63">
+        <v>6981398.9926413549</v>
+      </c>
+      <c r="C63">
+        <v>66631251.240446121</v>
+      </c>
+      <c r="D63">
+        <v>46301612.342968576</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>119914262.57605606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>67937</v>
+      </c>
+      <c r="B64">
+        <v>5206973.8155731391</v>
+      </c>
+      <c r="C64">
+        <v>58121100.914731264</v>
+      </c>
+      <c r="D64">
+        <v>39624979.315010302</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>102953054.0453147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>68302</v>
+      </c>
+      <c r="B65">
+        <v>3837888.184433273</v>
+      </c>
+      <c r="C65">
+        <v>50371059.422703519</v>
+      </c>
+      <c r="D65">
+        <v>33656659.585387878</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>87865607.192524672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>68667</v>
+      </c>
+      <c r="B66">
+        <v>2798836.1922585457</v>
+      </c>
+      <c r="C66">
+        <v>43352326.899427101</v>
+      </c>
+      <c r="D66">
+        <v>28357173.597944204</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>74508336.689629853</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>69033</v>
+      </c>
+      <c r="B67">
+        <v>2023593.7851787007</v>
+      </c>
+      <c r="C67">
+        <v>37034393.326257914</v>
+      </c>
+      <c r="D67">
+        <v>23686341.639386546</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E81" si="1">SUM(B67:D67)</f>
+        <v>62744328.750823155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>69398</v>
+      </c>
+      <c r="B68">
+        <v>1455164.6010767773</v>
+      </c>
+      <c r="C68">
+        <v>31384904.163066234</v>
+      </c>
+      <c r="D68">
+        <v>19603217.280034732</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>52443286.044177741</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>69763</v>
+      </c>
+      <c r="B69">
+        <v>1045600.863133507</v>
+      </c>
+      <c r="C69">
+        <v>26370361.516211238</v>
+      </c>
+      <c r="D69">
+        <v>16065704.553068738</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>43481666.932413489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>70128</v>
+      </c>
+      <c r="B70">
+        <v>755502.0370358848</v>
+      </c>
+      <c r="C70">
+        <v>21955973.66711387</v>
+      </c>
+      <c r="D70">
+        <v>13030158.254395094</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>35741633.95854485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70494</v>
+      </c>
+      <c r="B71">
+        <v>553282.60301581176</v>
+      </c>
+      <c r="C71">
+        <v>18104682.122132864</v>
+      </c>
+      <c r="D71">
+        <v>10451905.186933555</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>29109869.912082229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70859</v>
+      </c>
+      <c r="B72">
+        <v>414264.53627457604</v>
+      </c>
+      <c r="C72">
+        <v>14776550.045790944</v>
+      </c>
+      <c r="D72">
+        <v>8285797.0366229918</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>23476611.618688513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>71224</v>
+      </c>
+      <c r="B73">
+        <v>319661.94293464278</v>
+      </c>
+      <c r="C73">
+        <v>11929239.070590543</v>
+      </c>
+      <c r="D73">
+        <v>6486751.1570965853</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>18735652.170621771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>71589</v>
+      </c>
+      <c r="B74">
+        <v>255578.37498473478</v>
+      </c>
+      <c r="C74">
+        <v>9518696.6846692991</v>
+      </c>
+      <c r="D74">
+        <v>5010798.6988733429</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>14785073.758527378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>71955</v>
+      </c>
+      <c r="B75">
+        <v>212003.67197197338</v>
+      </c>
+      <c r="C75">
+        <v>7499873.0221679397</v>
+      </c>
+      <c r="D75">
+        <v>3815847.4044241295</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>11527724.098564042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>72320</v>
+      </c>
+      <c r="B76">
+        <v>181902.65418303126</v>
+      </c>
+      <c r="C76">
+        <v>5828576.7285327418</v>
+      </c>
+      <c r="D76">
+        <v>2862094.8920087544</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>8872574.2747245282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>72685</v>
+      </c>
+      <c r="B77">
+        <v>160444.9531294769</v>
+      </c>
+      <c r="C77">
+        <v>4463046.9834788283</v>
+      </c>
+      <c r="D77">
+        <v>2112466.6873836364</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>6735958.623991942</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>73050</v>
+      </c>
+      <c r="B78">
+        <v>144422.40229482067</v>
+      </c>
+      <c r="C78">
+        <v>3363483.9817510229</v>
+      </c>
+      <c r="D78">
+        <v>1532902.2209515965</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>5040808.6049974402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>73415</v>
+      </c>
+      <c r="B79">
+        <v>131748.09495509215</v>
+      </c>
+      <c r="C79">
+        <v>2491935.3677231157</v>
+      </c>
+      <c r="D79">
+        <v>1092610.5659482984</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>3716294.0286265062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>73780</v>
+      </c>
+      <c r="B80">
+        <v>121086.24164267779</v>
+      </c>
+      <c r="C80">
+        <v>1812889.7100188383</v>
+      </c>
+      <c r="D80">
+        <v>764317.70603660983</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>2698293.6576981256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>74145</v>
+      </c>
+      <c r="B81">
+        <v>111614.79137458862</v>
+      </c>
+      <c r="C81">
+        <v>1293580.1802420681</v>
+      </c>
+      <c r="D81">
+        <v>524330.68339911569</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>1929525.6550157724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>